--- a/Predictive Modelling Analytics/fp/Dataset/Data_FP_PAP-C.xlsx
+++ b/Predictive Modelling Analytics/fp/Dataset/Data_FP_PAP-C.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajhiswara/Documents/pap/fp/Dataset/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906ABF64-B174-2840-B80B-27B365AD7C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Tahun</t>
   </si>
@@ -28,6 +22,9 @@
     <t>Bulan</t>
   </si>
   <si>
+    <t>Kedatangan_Internasional</t>
+  </si>
+  <si>
     <t>Periode</t>
   </si>
   <si>
@@ -314,22 +311,13 @@
   </si>
   <si>
     <t>10/01/2024</t>
-  </si>
-  <si>
-    <t>11/01/2024</t>
-  </si>
-  <si>
-    <t>12/01/2024</t>
-  </si>
-  <si>
-    <t>kedatangan_internasional</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,21 +380,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -444,7 +424,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -478,7 +458,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -513,10 +492,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -689,16 +667,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" activeCellId="1" sqref="C2 G7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,16 +682,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>2017</v>
       </c>
@@ -729,10 +705,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -746,10 +722,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -763,10 +739,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -780,10 +756,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -797,10 +773,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -814,10 +790,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>2017</v>
       </c>
@@ -831,10 +807,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -848,10 +824,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>2017</v>
       </c>
@@ -865,10 +841,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -882,10 +858,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -899,10 +875,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -916,10 +892,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -933,10 +909,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -950,10 +926,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>2018</v>
       </c>
@@ -967,10 +943,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -984,10 +960,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -1001,10 +977,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>2018</v>
       </c>
@@ -1018,10 +994,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -1035,10 +1011,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -1052,10 +1028,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -1069,10 +1045,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -1086,10 +1062,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>2018</v>
       </c>
@@ -1103,10 +1079,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -1120,10 +1096,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>2019</v>
       </c>
@@ -1137,10 +1113,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>2019</v>
       </c>
@@ -1154,10 +1130,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>2019</v>
       </c>
@@ -1171,10 +1147,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>2019</v>
       </c>
@@ -1188,10 +1164,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>2019</v>
       </c>
@@ -1205,10 +1181,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>2019</v>
       </c>
@@ -1222,10 +1198,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>2019</v>
       </c>
@@ -1239,10 +1215,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>2019</v>
       </c>
@@ -1256,10 +1232,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>2019</v>
       </c>
@@ -1273,10 +1249,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>2019</v>
       </c>
@@ -1290,10 +1266,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>2019</v>
       </c>
@@ -1307,10 +1283,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -1324,10 +1300,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>2020</v>
       </c>
@@ -1341,10 +1317,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>2020</v>
       </c>
@@ -1358,10 +1334,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>2020</v>
       </c>
@@ -1375,10 +1351,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>2020</v>
       </c>
@@ -1392,10 +1368,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>2020</v>
       </c>
@@ -1409,10 +1385,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>2020</v>
       </c>
@@ -1426,10 +1402,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>2020</v>
       </c>
@@ -1443,10 +1419,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>2020</v>
       </c>
@@ -1460,10 +1436,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>2020</v>
       </c>
@@ -1477,10 +1453,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>2020</v>
       </c>
@@ -1494,10 +1470,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>2020</v>
       </c>
@@ -1511,10 +1487,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>2020</v>
       </c>
@@ -1528,10 +1504,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>2021</v>
       </c>
@@ -1545,10 +1521,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>2021</v>
       </c>
@@ -1562,10 +1538,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>2021</v>
       </c>
@@ -1579,10 +1555,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>2021</v>
       </c>
@@ -1596,10 +1572,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>2021</v>
       </c>
@@ -1613,10 +1589,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>2021</v>
       </c>
@@ -1630,10 +1606,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>2021</v>
       </c>
@@ -1647,10 +1623,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>2021</v>
       </c>
@@ -1664,10 +1640,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>2021</v>
       </c>
@@ -1681,10 +1657,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>2021</v>
       </c>
@@ -1698,10 +1674,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>2021</v>
       </c>
@@ -1715,10 +1691,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>2021</v>
       </c>
@@ -1732,10 +1708,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>2022</v>
       </c>
@@ -1749,10 +1725,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>2022</v>
       </c>
@@ -1766,10 +1742,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>2022</v>
       </c>
@@ -1783,10 +1759,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>2022</v>
       </c>
@@ -1800,10 +1776,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>2022</v>
       </c>
@@ -1817,10 +1793,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>2022</v>
       </c>
@@ -1834,10 +1810,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>2022</v>
       </c>
@@ -1851,10 +1827,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>2022</v>
       </c>
@@ -1868,10 +1844,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>2022</v>
       </c>
@@ -1885,10 +1861,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>2022</v>
       </c>
@@ -1902,10 +1878,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>2022</v>
       </c>
@@ -1919,10 +1895,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>2022</v>
       </c>
@@ -1936,10 +1912,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>2023</v>
       </c>
@@ -1953,10 +1929,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>2023</v>
       </c>
@@ -1970,10 +1946,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>2023</v>
       </c>
@@ -1987,10 +1963,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>2023</v>
       </c>
@@ -2004,10 +1980,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>2023</v>
       </c>
@@ -2021,10 +1997,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>2023</v>
       </c>
@@ -2038,10 +2014,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>2023</v>
       </c>
@@ -2055,10 +2031,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>2023</v>
       </c>
@@ -2072,10 +2048,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>2023</v>
       </c>
@@ -2089,10 +2065,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>2023</v>
       </c>
@@ -2106,10 +2082,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>2023</v>
       </c>
@@ -2123,10 +2099,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>2023</v>
       </c>
@@ -2140,10 +2116,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>2024</v>
       </c>
@@ -2157,10 +2133,10 @@
         <v>73</v>
       </c>
       <c r="E86" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>2024</v>
       </c>
@@ -2174,10 +2150,10 @@
         <v>74</v>
       </c>
       <c r="E87" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>2024</v>
       </c>
@@ -2191,10 +2167,10 @@
         <v>75</v>
       </c>
       <c r="E88" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>2024</v>
       </c>
@@ -2208,10 +2184,10 @@
         <v>76</v>
       </c>
       <c r="E89" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>2024</v>
       </c>
@@ -2225,10 +2201,10 @@
         <v>77</v>
       </c>
       <c r="E90" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>2024</v>
       </c>
@@ -2242,10 +2218,10 @@
         <v>78</v>
       </c>
       <c r="E91" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>2024</v>
       </c>
@@ -2259,10 +2235,10 @@
         <v>79</v>
       </c>
       <c r="E92" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>2024</v>
       </c>
@@ -2276,10 +2252,10 @@
         <v>80</v>
       </c>
       <c r="E93" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>2024</v>
       </c>
@@ -2293,10 +2269,10 @@
         <v>81</v>
       </c>
       <c r="E94" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>2024</v>
       </c>
@@ -2304,47 +2280,13 @@
         <v>10</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>7169</v>
       </c>
       <c r="D95">
         <v>82</v>
       </c>
       <c r="E95" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>2024</v>
-      </c>
-      <c r="B96">
-        <v>11</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>83</v>
-      </c>
-      <c r="E96" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>2024</v>
-      </c>
-      <c r="B97">
-        <v>12</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>84</v>
-      </c>
-      <c r="E97" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
